--- a/client/test_results/filtered_safari_test_results.xlsx
+++ b/client/test_results/filtered_safari_test_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>4.214474678039551</v>
+        <v>0.7785501480102539</v>
       </c>
       <c r="D2" t="n">
-        <v>7.972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8399598598480225</v>
+        <v>0.4487638473510742</v>
       </c>
       <c r="D3" t="n">
-        <v>7.972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7909538745880127</v>
+        <v>0.4951229095458984</v>
       </c>
       <c r="D4" t="n">
-        <v>7.308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.11809778213501</v>
+        <v>0.4708287715911865</v>
       </c>
       <c r="D5" t="n">
-        <v>7.308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4095399379730225</v>
+        <v>0.07204771041870117</v>
       </c>
       <c r="D6" t="n">
-        <v>6.017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>1.851292848587036</v>
+        <v>0.06608104705810547</v>
       </c>
       <c r="D7" t="n">
-        <v>6.017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8879351615905762</v>
+        <v>0.09218668937683105</v>
       </c>
       <c r="D8" t="n">
-        <v>5.353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4826867580413818</v>
+        <v>0.1927340030670166</v>
       </c>
       <c r="D9" t="n">
-        <v>5.353</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8926753997802734</v>
+        <v>0.6884679794311523</v>
       </c>
       <c r="D10" t="n">
-        <v>67.27800000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6067256927490234</v>
+        <v>0.257838249206543</v>
       </c>
       <c r="D11" t="n">
-        <v>73.413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>9.500363349914551</v>
+        <v>0.5248048305511475</v>
       </c>
       <c r="D12" t="n">
-        <v>56.173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.555010557174683</v>
+        <v>0.3641648292541504</v>
       </c>
       <c r="D13" t="n">
-        <v>73.245</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8234548568725586</v>
+        <v>0.4229428768157959</v>
       </c>
       <c r="D14" t="n">
-        <v>8.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>1.023964881896973</v>
+        <v>0.4173502922058105</v>
       </c>
       <c r="D15" t="n">
-        <v>8.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.096057891845703</v>
+        <v>0.5478470325469971</v>
       </c>
       <c r="D16" t="n">
-        <v>7.326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8700587749481201</v>
+        <v>0.5007138252258301</v>
       </c>
       <c r="D17" t="n">
-        <v>7.326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5601279735565186</v>
+        <v>0.05916213989257812</v>
       </c>
       <c r="D18" t="n">
-        <v>6.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5713014602661133</v>
+        <v>0.0615692138671875</v>
       </c>
       <c r="D19" t="n">
-        <v>6.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5185327529907227</v>
+        <v>0.1086909770965576</v>
       </c>
       <c r="D20" t="n">
-        <v>5.371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6300890445709229</v>
+        <v>0.09883594512939453</v>
       </c>
       <c r="D21" t="n">
-        <v>5.371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6529598236083984</v>
+        <v>0.2533378601074219</v>
       </c>
       <c r="D22" t="n">
-        <v>64.398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6767938137054443</v>
+        <v>0.2440938949584961</v>
       </c>
       <c r="D23" t="n">
-        <v>522.806</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.060065269470215</v>
+        <v>0.3615798950195312</v>
       </c>
       <c r="D24" t="n">
-        <v>58.093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.390131711959839</v>
+        <v>0.4897820949554443</v>
       </c>
       <c r="D25" t="n">
-        <v>522.668</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
